--- a/Status Development RICEF 1.12 LUT 23 Feb 2026.xlsx
+++ b/Status Development RICEF 1.12 LUT 23 Feb 2026.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="122">
   <si>
     <t>No</t>
   </si>
@@ -399,6 +399,12 @@
   </si>
   <si>
     <t>secara data sudah dicollect semua</t>
+  </si>
+  <si>
+    <t>ada beberapa kolom belum ada datanya</t>
+  </si>
+  <si>
+    <t>No Invoice dan Tujuan belum ada</t>
   </si>
 </sst>
 </file>
@@ -943,7 +949,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -955,7 +961,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K5" sqref="K5"/>
+      <selection pane="topRight" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -970,7 +976,7 @@
     <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="65.5" style="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.875" customWidth="1"/>
-    <col min="11" max="11" width="30.875" customWidth="1"/>
+    <col min="11" max="11" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24">
@@ -1196,6 +1202,9 @@
       <c r="J7" s="33">
         <v>0.75</v>
       </c>
+      <c r="K7" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2">
@@ -1314,7 +1323,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="69.75">
+    <row r="12" spans="1:11" ht="72">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1460,7 +1469,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1490,7 +1499,7 @@
       </c>
       <c r="J17" s="23"/>
     </row>
-    <row r="18" spans="1:10" ht="58.15">
+    <row r="18" spans="1:11" ht="60">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1519,7 +1528,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1548,7 +1557,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1577,7 +1586,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1605,7 +1614,7 @@
       <c r="I21" s="16"/>
       <c r="J21" s="22"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1633,7 +1642,7 @@
       <c r="I22" s="16"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1661,7 +1670,7 @@
       <c r="I23" s="16"/>
       <c r="J23" s="22"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1689,7 +1698,7 @@
       <c r="I24" s="16"/>
       <c r="J24" s="22"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1717,7 +1726,7 @@
       <c r="I25" s="16"/>
       <c r="J25" s="22"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1746,8 +1755,11 @@
       <c r="J26" s="22" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1775,7 +1787,7 @@
       <c r="I27" s="16"/>
       <c r="J27" s="22"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1803,7 +1815,7 @@
       <c r="I28" s="16"/>
       <c r="J28" s="22"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1831,7 +1843,7 @@
       <c r="I29" s="16"/>
       <c r="J29" s="22"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1859,7 +1871,7 @@
       <c r="I30" s="16"/>
       <c r="J30" s="22"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1887,7 +1899,7 @@
       <c r="I31" s="16"/>
       <c r="J31" s="22"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -3312,14 +3324,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="8f77f927-cd31-4ea6-a5a7-2ecfd6a6fe21" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="68c4fae2-1f0f-46c3-90df-7a593122ffa8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3518,21 +3528,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="8f77f927-cd31-4ea6-a5a7-2ecfd6a6fe21" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="68c4fae2-1f0f-46c3-90df-7a593122ffa8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5990EB93-3878-46E0-8DA1-19BACA7F8EFF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B06DBE3-F97E-40BB-B2D9-119E7F4228DA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8f77f927-cd31-4ea6-a5a7-2ecfd6a6fe21"/>
-    <ds:schemaRef ds:uri="68c4fae2-1f0f-46c3-90df-7a593122ffa8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3557,9 +3566,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B06DBE3-F97E-40BB-B2D9-119E7F4228DA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5990EB93-3878-46E0-8DA1-19BACA7F8EFF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8f77f927-cd31-4ea6-a5a7-2ecfd6a6fe21"/>
+    <ds:schemaRef ds:uri="68c4fae2-1f0f-46c3-90df-7a593122ffa8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>